--- a/Documentación/Estandar Comunicación API.xlsx
+++ b/Documentación/Estandar Comunicación API.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efren\Google Drive\TEC\6° Semestre\Bases De Datos\Proyecto 1\GasStationPharmacy\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Extreme Tech\Google Drive\TEC\8º Semestre\Bases de Datos\GasStationPharmacy\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">Cantidad Ventas </t>
   </si>
   <si>
-    <t>IDCompañía</t>
-  </si>
-  <si>
     <t xml:space="preserve">Producto más Vendidos por Compañía </t>
+  </si>
+  <si>
+    <t>NombreCompañía</t>
   </si>
 </sst>
 </file>
@@ -578,20 +578,20 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="2"/>
-    <col min="5" max="5" width="34.44140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2"/>
+    <col min="5" max="5" width="34.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -623,7 +623,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>200</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
@@ -859,7 +859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -870,29 +870,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
     </row>
   </sheetData>
